--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Zp3-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Zp3-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Zp3</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Zp3</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +546,10 @@
         <v>0.497555</v>
       </c>
       <c r="I2">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>0.26107208405</v>
+        <v>0.2822678717661111</v>
       </c>
       <c r="R2">
-        <v>2.34964875645</v>
+        <v>2.540410845895</v>
       </c>
       <c r="S2">
-        <v>0.01096260070496232</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="T2">
-        <v>0.01096260070496232</v>
+        <v>0.02105622887134972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.497555</v>
       </c>
       <c r="I3">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
         <v>10.366383783195</v>
@@ -638,10 +638,10 @@
         <v>93.297454048755</v>
       </c>
       <c r="S3">
-        <v>0.4352917569991851</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="T3">
-        <v>0.4352917569991852</v>
+        <v>0.7732971809418953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,40 +670,40 @@
         <v>0.497555</v>
       </c>
       <c r="I4">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.03033476738833333</v>
+        <v>0.071957896765</v>
       </c>
       <c r="R4">
-        <v>0.273012906495</v>
+        <v>0.6476210708850001</v>
       </c>
       <c r="S4">
-        <v>0.001273778250042705</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="T4">
-        <v>0.001273778250042705</v>
+        <v>0.005367815805265533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>0.497555</v>
       </c>
       <c r="I5">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>2.219974203265556</v>
+        <v>2.64904650704</v>
       </c>
       <c r="R5">
-        <v>19.97976782939</v>
+        <v>23.84141856336</v>
       </c>
       <c r="S5">
-        <v>0.09321828051541589</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="T5">
-        <v>0.09321828051541589</v>
+        <v>0.1976099128607259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,350 +794,40 @@
         <v>0.497555</v>
       </c>
       <c r="I6">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.01555815786277778</v>
+        <v>0.03577724511388888</v>
       </c>
       <c r="R6">
-        <v>0.140023420765</v>
+        <v>0.321995206025</v>
       </c>
       <c r="S6">
-        <v>0.0006532980076174585</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="T6">
-        <v>0.0006532980076174585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.140487</v>
-      </c>
-      <c r="H7">
-        <v>0.421461</v>
-      </c>
-      <c r="I7">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J7">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.57413</v>
-      </c>
-      <c r="N7">
-        <v>4.72239</v>
-      </c>
-      <c r="O7">
-        <v>0.02024862668342525</v>
-      </c>
-      <c r="P7">
-        <v>0.02024862668342525</v>
-      </c>
-      <c r="Q7">
-        <v>0.22114480131</v>
-      </c>
-      <c r="R7">
-        <v>1.99030321179</v>
-      </c>
-      <c r="S7">
-        <v>0.00928602597846293</v>
-      </c>
-      <c r="T7">
-        <v>0.00928602597846293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.140487</v>
-      </c>
-      <c r="H8">
-        <v>0.421461</v>
-      </c>
-      <c r="I8">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J8">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>62.503947</v>
-      </c>
-      <c r="N8">
-        <v>187.511841</v>
-      </c>
-      <c r="O8">
-        <v>0.804011796385049</v>
-      </c>
-      <c r="P8">
-        <v>0.8040117963850492</v>
-      </c>
-      <c r="Q8">
-        <v>8.780992002189</v>
-      </c>
-      <c r="R8">
-        <v>79.028928019701</v>
-      </c>
-      <c r="S8">
-        <v>0.368720039385864</v>
-      </c>
-      <c r="T8">
-        <v>0.368720039385864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.140487</v>
-      </c>
-      <c r="H9">
-        <v>0.421461</v>
-      </c>
-      <c r="I9">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J9">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.182903</v>
-      </c>
-      <c r="N9">
-        <v>0.548709</v>
-      </c>
-      <c r="O9">
-        <v>0.002352750132631058</v>
-      </c>
-      <c r="P9">
-        <v>0.002352750132631058</v>
-      </c>
-      <c r="Q9">
-        <v>0.025695493761</v>
-      </c>
-      <c r="R9">
-        <v>0.231259443849</v>
-      </c>
-      <c r="S9">
-        <v>0.001078971882588354</v>
-      </c>
-      <c r="T9">
-        <v>0.001078971882588354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.140487</v>
-      </c>
-      <c r="H10">
-        <v>0.421461</v>
-      </c>
-      <c r="I10">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J10">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>13.38529933333333</v>
-      </c>
-      <c r="N10">
-        <v>40.155898</v>
-      </c>
-      <c r="O10">
-        <v>0.1721801434738983</v>
-      </c>
-      <c r="P10">
-        <v>0.1721801434738983</v>
-      </c>
-      <c r="Q10">
-        <v>1.880460547442</v>
-      </c>
-      <c r="R10">
-        <v>16.924144926978</v>
-      </c>
-      <c r="S10">
-        <v>0.07896186295848237</v>
-      </c>
-      <c r="T10">
-        <v>0.07896186295848237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.140487</v>
-      </c>
-      <c r="H11">
-        <v>0.421461</v>
-      </c>
-      <c r="I11">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J11">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.09380766666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.281423</v>
-      </c>
-      <c r="O11">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="P11">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="Q11">
-        <v>0.013178757667</v>
-      </c>
-      <c r="R11">
-        <v>0.118608819003</v>
-      </c>
-      <c r="S11">
-        <v>0.0005533853173789062</v>
-      </c>
-      <c r="T11">
-        <v>0.0005533853173789062</v>
+        <v>0.002668861520763652</v>
       </c>
     </row>
   </sheetData>
